--- a/planilhas/GR.SEAI.xlsx
+++ b/planilhas/GR.SEAI.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Secretários, servidores e estagiários\Karla\..Atividades Secretaria - SEAI\Agente Patrimonial - Inventário UFSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramon\OneDrive\Documentos\GitHub\analisadorPlanilhas\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FFB597-A5B0-4CC3-B92D-8996C73E0218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21915" windowHeight="8535"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unidade XXX" sheetId="1" r:id="rId1"/>
@@ -19,28 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>UFSC</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>N. Patrimônio</t>
   </si>
@@ -146,15 +136,12 @@
   <si>
     <t>Necessita limpeza.</t>
   </si>
-  <si>
-    <t>Levantamento de Aparelhos de Ar Condicionado - SEAI</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,13 +163,6 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -198,7 +178,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -281,20 +261,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -315,9 +286,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -333,10 +301,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -635,11 +599,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1001"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,115 +620,113 @@
     <col min="10" max="10" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="2" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
         <v>328374</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C2" s="5">
         <v>14844</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>483451</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C3" s="7">
         <v>14844</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -12718,22 +12680,7 @@
       <c r="I1000" s="1"/>
       <c r="J1000" s="1"/>
     </row>
-    <row r="1001" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1001" s="1"/>
-      <c r="B1001" s="1"/>
-      <c r="C1001" s="1"/>
-      <c r="D1001" s="1"/>
-      <c r="E1001" s="1"/>
-      <c r="F1001" s="1"/>
-      <c r="G1001" s="1"/>
-      <c r="H1001" s="1"/>
-      <c r="I1001" s="1"/>
-      <c r="J1001" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
